--- a/data/pca/factorExposure/factorExposure_2010-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-11.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01598944990417975</v>
+        <v>-0.0172127434155544</v>
       </c>
       <c r="C2">
-        <v>0.0003973315202886896</v>
+        <v>0.001107276804998243</v>
       </c>
       <c r="D2">
-        <v>0.01786210223840734</v>
+        <v>-0.009377964979584182</v>
       </c>
       <c r="E2">
-        <v>-0.02265964573175509</v>
+        <v>0.0004657844554690337</v>
       </c>
       <c r="F2">
-        <v>0.01206873136090928</v>
+        <v>-0.01062309407952128</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1199575920084736</v>
+        <v>-0.09395541008538547</v>
       </c>
       <c r="C4">
-        <v>-0.08694066331325134</v>
+        <v>0.01726786209340861</v>
       </c>
       <c r="D4">
-        <v>-0.01745011846461469</v>
+        <v>-0.08284749461072052</v>
       </c>
       <c r="E4">
-        <v>-0.01201174550733307</v>
+        <v>-0.02942894098194262</v>
       </c>
       <c r="F4">
-        <v>0.03431072683160196</v>
+        <v>0.03344250269097183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1316059907897659</v>
+        <v>-0.1528209475927901</v>
       </c>
       <c r="C6">
-        <v>-0.06227010763526157</v>
+        <v>0.02482520062389143</v>
       </c>
       <c r="D6">
-        <v>0.005619057883871016</v>
+        <v>0.02264241300570728</v>
       </c>
       <c r="E6">
-        <v>0.03446817588727277</v>
+        <v>-0.009364025441139406</v>
       </c>
       <c r="F6">
-        <v>-0.007332691383587689</v>
+        <v>0.04052813177543723</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07423851882244123</v>
+        <v>-0.06094253569698746</v>
       </c>
       <c r="C7">
-        <v>-0.07132210950096089</v>
+        <v>-0.0001523661516509608</v>
       </c>
       <c r="D7">
-        <v>0.005909278116416991</v>
+        <v>-0.0512602537334883</v>
       </c>
       <c r="E7">
-        <v>-0.02446216085778528</v>
+        <v>-0.01568601314048748</v>
       </c>
       <c r="F7">
-        <v>0.01081398612030324</v>
+        <v>0.05366343072835884</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0466180838816498</v>
+        <v>-0.05896596287615699</v>
       </c>
       <c r="C8">
-        <v>-0.03341794987190724</v>
+        <v>-0.01276970391698444</v>
       </c>
       <c r="D8">
-        <v>0.00705247354354546</v>
+        <v>-0.03009406616993329</v>
       </c>
       <c r="E8">
-        <v>0.02690313538685482</v>
+        <v>-0.01402704709201575</v>
       </c>
       <c r="F8">
-        <v>0.009806470893205264</v>
+        <v>-0.02823086796215443</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08541983771587537</v>
+        <v>-0.0716932584432453</v>
       </c>
       <c r="C9">
-        <v>-0.06819511274917299</v>
+        <v>0.01346854679188102</v>
       </c>
       <c r="D9">
-        <v>-0.02627846582161198</v>
+        <v>-0.0827462911535192</v>
       </c>
       <c r="E9">
-        <v>-0.006790332912603176</v>
+        <v>-0.02517851809696512</v>
       </c>
       <c r="F9">
-        <v>0.01491343426282275</v>
+        <v>0.05503488820432387</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1313526512628873</v>
+        <v>-0.0936530377821313</v>
       </c>
       <c r="C10">
-        <v>0.1570436946697725</v>
+        <v>0.01611286914983378</v>
       </c>
       <c r="D10">
-        <v>0.01490769480205767</v>
+        <v>0.170930498450165</v>
       </c>
       <c r="E10">
-        <v>-0.03538343178218894</v>
+        <v>0.03659000647897682</v>
       </c>
       <c r="F10">
-        <v>0.02428051354065957</v>
+        <v>-0.05226225067723617</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07484681424865774</v>
+        <v>-0.0881200984559065</v>
       </c>
       <c r="C11">
-        <v>-0.06869917048889378</v>
+        <v>0.01276722752789215</v>
       </c>
       <c r="D11">
-        <v>-0.03136928659506456</v>
+        <v>-0.1134600762476106</v>
       </c>
       <c r="E11">
-        <v>0.01166695718485639</v>
+        <v>-0.04696808891500723</v>
       </c>
       <c r="F11">
-        <v>0.01859180285282384</v>
+        <v>0.02288926454230906</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.06780996196986945</v>
+        <v>-0.0934591667234999</v>
       </c>
       <c r="C12">
-        <v>-0.07111294889564089</v>
+        <v>0.01069872905292891</v>
       </c>
       <c r="D12">
-        <v>-0.05098293934940753</v>
+        <v>-0.120072714976452</v>
       </c>
       <c r="E12">
-        <v>-0.01217295084823958</v>
+        <v>-0.04628879750933203</v>
       </c>
       <c r="F12">
-        <v>-0.01482491862554413</v>
+        <v>0.02314368688334946</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03457588832196011</v>
+        <v>-0.04359054397476714</v>
       </c>
       <c r="C13">
-        <v>-0.03717827001597718</v>
+        <v>0.004368477088915193</v>
       </c>
       <c r="D13">
-        <v>0.009792480966499843</v>
+        <v>-0.04647732647502742</v>
       </c>
       <c r="E13">
-        <v>-0.02035703886486172</v>
+        <v>0.01228263263963305</v>
       </c>
       <c r="F13">
-        <v>0.01195461231817248</v>
+        <v>0.01371501848112098</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03220902326934984</v>
+        <v>-0.02209376335563462</v>
       </c>
       <c r="C14">
-        <v>-0.02989017249531536</v>
+        <v>0.01475825756802784</v>
       </c>
       <c r="D14">
-        <v>-0.0194692972042677</v>
+        <v>-0.03275441920624621</v>
       </c>
       <c r="E14">
-        <v>0.000796252127112</v>
+        <v>-0.01932076907391941</v>
       </c>
       <c r="F14">
-        <v>-0.004131480559335279</v>
+        <v>0.0197855130718154</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0184065830433016</v>
+        <v>-0.03220391224694007</v>
       </c>
       <c r="C15">
-        <v>-0.02401085782224202</v>
+        <v>0.005673336933160032</v>
       </c>
       <c r="D15">
-        <v>0.06240354709660965</v>
+        <v>-0.04496435292359348</v>
       </c>
       <c r="E15">
-        <v>-0.01503730471618587</v>
+        <v>-0.009105346332461616</v>
       </c>
       <c r="F15">
-        <v>0.02054587209989035</v>
+        <v>0.03120258945628556</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0801908701951321</v>
+        <v>-0.07484532306237945</v>
       </c>
       <c r="C16">
-        <v>-0.07081381537664461</v>
+        <v>0.004333004243085723</v>
       </c>
       <c r="D16">
-        <v>-0.03987868195307685</v>
+        <v>-0.1154882397845066</v>
       </c>
       <c r="E16">
-        <v>0.02749650351721793</v>
+        <v>-0.06182031551129705</v>
       </c>
       <c r="F16">
-        <v>0.005323336156066594</v>
+        <v>0.03185396280145885</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02158684444296018</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003730599103833016</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02106920434968068</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01074961562504646</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02466347691656759</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0425743527792104</v>
+        <v>-0.06130912816236641</v>
       </c>
       <c r="C20">
-        <v>-0.03265187431452831</v>
+        <v>0.002103793017832253</v>
       </c>
       <c r="D20">
-        <v>0.02588831888657813</v>
+        <v>-0.07243871714357658</v>
       </c>
       <c r="E20">
-        <v>-0.02210181224429888</v>
+        <v>-0.0542084860440591</v>
       </c>
       <c r="F20">
-        <v>-0.01222404074849899</v>
+        <v>0.028045887071929</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02615670352955723</v>
+        <v>-0.0394549514230082</v>
       </c>
       <c r="C21">
-        <v>-0.02145939199337319</v>
+        <v>0.007840766181204254</v>
       </c>
       <c r="D21">
-        <v>-0.013681593822596</v>
+        <v>-0.03602333830216829</v>
       </c>
       <c r="E21">
-        <v>-0.0009593629205015851</v>
+        <v>0.007997707043846721</v>
       </c>
       <c r="F21">
-        <v>0.01193446720804608</v>
+        <v>-0.02018237950731503</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05674242412883164</v>
+        <v>-0.04209429051603121</v>
       </c>
       <c r="C22">
-        <v>-0.00897534061076208</v>
+        <v>0.0001520579490064399</v>
       </c>
       <c r="D22">
-        <v>0.6331952861366769</v>
+        <v>-0.0007065336361388913</v>
       </c>
       <c r="E22">
-        <v>-0.1299220730138206</v>
+        <v>-0.02816559282091409</v>
       </c>
       <c r="F22">
-        <v>-0.1518333094918665</v>
+        <v>-0.01205085367663159</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0573792451166075</v>
+        <v>-0.04214585322851638</v>
       </c>
       <c r="C23">
-        <v>-0.01063176509605204</v>
+        <v>0.0001742762958735061</v>
       </c>
       <c r="D23">
-        <v>0.6354407623848616</v>
+        <v>-0.0008761891904947068</v>
       </c>
       <c r="E23">
-        <v>-0.129494837122023</v>
+        <v>-0.02852875747943198</v>
       </c>
       <c r="F23">
-        <v>-0.1514413133001195</v>
+        <v>-0.01154374729125631</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08164946212527456</v>
+        <v>-0.08107076450149832</v>
       </c>
       <c r="C24">
-        <v>-0.07046860819852614</v>
+        <v>0.00463546939538838</v>
       </c>
       <c r="D24">
-        <v>-0.035507151147314</v>
+        <v>-0.1164725313923539</v>
       </c>
       <c r="E24">
-        <v>0.007626041772717813</v>
+        <v>-0.04951039030393614</v>
       </c>
       <c r="F24">
-        <v>0.002220394733810481</v>
+        <v>0.02463605093316848</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08077552737605477</v>
+        <v>-0.08556608251881842</v>
       </c>
       <c r="C25">
-        <v>-0.06591778882133173</v>
+        <v>0.006611342601001781</v>
       </c>
       <c r="D25">
-        <v>-0.04962131642417505</v>
+        <v>-0.1045230051702514</v>
       </c>
       <c r="E25">
-        <v>-0.003133992589845324</v>
+        <v>-0.03253308240818983</v>
       </c>
       <c r="F25">
-        <v>0.002974094970039668</v>
+        <v>0.03259501005174941</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03809661376693767</v>
+        <v>-0.05572768786246769</v>
       </c>
       <c r="C26">
-        <v>0.008288091609033864</v>
+        <v>0.01545415921927554</v>
       </c>
       <c r="D26">
-        <v>0.01786228282192783</v>
+        <v>-0.03402494244557497</v>
       </c>
       <c r="E26">
-        <v>0.02526687484115821</v>
+        <v>-0.02629273552070147</v>
       </c>
       <c r="F26">
-        <v>-0.0594614042521892</v>
+        <v>-0.008856964757878737</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1524454776545708</v>
+        <v>-0.1402401442840698</v>
       </c>
       <c r="C28">
-        <v>0.2747682903229486</v>
+        <v>0.01395053621282837</v>
       </c>
       <c r="D28">
-        <v>-0.001137248983734376</v>
+        <v>0.2688228402522028</v>
       </c>
       <c r="E28">
-        <v>0.06654466653585714</v>
+        <v>0.06735042514126061</v>
       </c>
       <c r="F28">
-        <v>-0.01066058053778988</v>
+        <v>0.03231385785427549</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03148575709316494</v>
+        <v>-0.02702187122849927</v>
       </c>
       <c r="C29">
-        <v>-0.02674967789747362</v>
+        <v>0.008990036727141265</v>
       </c>
       <c r="D29">
-        <v>-0.02554196211977162</v>
+        <v>-0.03135135829204464</v>
       </c>
       <c r="E29">
-        <v>-0.02719170300965587</v>
+        <v>-0.01196149096372411</v>
       </c>
       <c r="F29">
-        <v>-0.01914125305931025</v>
+        <v>-0.01090327052985532</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09425233063091595</v>
+        <v>-0.0639051159313518</v>
       </c>
       <c r="C30">
-        <v>-0.07164809455329929</v>
+        <v>0.006110759169487492</v>
       </c>
       <c r="D30">
-        <v>-0.03831371426873816</v>
+        <v>-0.08005828563275853</v>
       </c>
       <c r="E30">
-        <v>0.08639891031738015</v>
+        <v>-0.02277628015052693</v>
       </c>
       <c r="F30">
-        <v>-0.1822835172398719</v>
+        <v>0.111204123310506</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03276602135084335</v>
+        <v>-0.04858454243935519</v>
       </c>
       <c r="C31">
-        <v>-0.05202314082288279</v>
+        <v>0.01511875983125847</v>
       </c>
       <c r="D31">
-        <v>-0.003458788856186149</v>
+        <v>-0.02883263046877793</v>
       </c>
       <c r="E31">
-        <v>-0.02026372571028933</v>
+        <v>-0.02733995642094276</v>
       </c>
       <c r="F31">
-        <v>0.007400915787512828</v>
+        <v>-0.002101673098115708</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05623266682217837</v>
+        <v>-0.04860793839360062</v>
       </c>
       <c r="C32">
-        <v>-0.03059086476307399</v>
+        <v>0.000603190651698008</v>
       </c>
       <c r="D32">
-        <v>-0.04386838882986537</v>
+        <v>-0.03032067591276955</v>
       </c>
       <c r="E32">
-        <v>0.06335482443823438</v>
+        <v>-0.0295209150433164</v>
       </c>
       <c r="F32">
-        <v>0.02390969271660299</v>
+        <v>0.001899069496137321</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08689302392366691</v>
+        <v>-0.09046122224396005</v>
       </c>
       <c r="C33">
-        <v>-0.06239639129377284</v>
+        <v>0.009756969275188144</v>
       </c>
       <c r="D33">
-        <v>-0.03356237653152173</v>
+        <v>-0.0925591018244374</v>
       </c>
       <c r="E33">
-        <v>0.00513983695084803</v>
+        <v>-0.04624800907744215</v>
       </c>
       <c r="F33">
-        <v>-0.0059779533493881</v>
+        <v>0.03954727642689763</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06769969848131797</v>
+        <v>-0.06896668008417453</v>
       </c>
       <c r="C34">
-        <v>-0.0503516627975221</v>
+        <v>0.01274539799084413</v>
       </c>
       <c r="D34">
-        <v>-0.04072361568928463</v>
+        <v>-0.09705029273882237</v>
       </c>
       <c r="E34">
-        <v>0.01229329393136841</v>
+        <v>-0.03444240779087101</v>
       </c>
       <c r="F34">
-        <v>0.007705758434037179</v>
+        <v>0.04553875333201261</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009954491419607048</v>
+        <v>-0.02406533889237233</v>
       </c>
       <c r="C35">
-        <v>-0.01122370388099545</v>
+        <v>0.00259765826007696</v>
       </c>
       <c r="D35">
-        <v>-0.002491468575341904</v>
+        <v>-0.01100037470195947</v>
       </c>
       <c r="E35">
-        <v>-0.008646245625772767</v>
+        <v>-0.01123105585169107</v>
       </c>
       <c r="F35">
-        <v>-0.006506862844635333</v>
+        <v>0.01066013606040687</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0213093453044352</v>
+        <v>-0.0244074363694705</v>
       </c>
       <c r="C36">
-        <v>-0.01467018981344101</v>
+        <v>0.007693279334946471</v>
       </c>
       <c r="D36">
-        <v>0.01109782466475821</v>
+        <v>-0.03701471298766438</v>
       </c>
       <c r="E36">
-        <v>0.009232294214682791</v>
+        <v>-0.01621372918986333</v>
       </c>
       <c r="F36">
-        <v>-0.01606515024082221</v>
+        <v>0.009978130022930808</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.01284320780454934</v>
+        <v>-0.002032881270821117</v>
       </c>
       <c r="C38">
-        <v>-0.02649780632188989</v>
+        <v>0.0003618557302745863</v>
       </c>
       <c r="D38">
-        <v>0.02077259947856109</v>
+        <v>-0.00218737817961677</v>
       </c>
       <c r="E38">
-        <v>-0.03728731613846547</v>
+        <v>-0.002516090363499132</v>
       </c>
       <c r="F38">
-        <v>-0.0665933882430657</v>
+        <v>-0.0009937179181653388</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1089921995225229</v>
+        <v>-0.1100062868533503</v>
       </c>
       <c r="C39">
-        <v>-0.09227095142668365</v>
+        <v>0.01831947678428331</v>
       </c>
       <c r="D39">
-        <v>-0.1401795539933363</v>
+        <v>-0.1494991539230323</v>
       </c>
       <c r="E39">
-        <v>0.03618969279634561</v>
+        <v>-0.05796763572152855</v>
       </c>
       <c r="F39">
-        <v>-0.09152401582325828</v>
+        <v>0.03360145048747234</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02396650813380744</v>
+        <v>-0.03732900980817414</v>
       </c>
       <c r="C40">
-        <v>-0.06559703440991249</v>
+        <v>0.007667653289238907</v>
       </c>
       <c r="D40">
-        <v>0.01982401485245035</v>
+        <v>-0.03106652579616746</v>
       </c>
       <c r="E40">
-        <v>-0.0573436345911023</v>
+        <v>-0.004277203674192781</v>
       </c>
       <c r="F40">
-        <v>0.01222697720524805</v>
+        <v>-0.01808198236489418</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03162548089589808</v>
+        <v>-0.02655351245658271</v>
       </c>
       <c r="C41">
-        <v>-0.02060546008552888</v>
+        <v>0.006947984258718049</v>
       </c>
       <c r="D41">
-        <v>-0.02232890472415263</v>
+        <v>-0.0106370730983352</v>
       </c>
       <c r="E41">
-        <v>-0.01361355960949109</v>
+        <v>-0.01227926511632166</v>
       </c>
       <c r="F41">
-        <v>-0.0136598133750381</v>
+        <v>-0.01043318527472073</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04300633346641145</v>
+        <v>-0.0419919303543355</v>
       </c>
       <c r="C43">
-        <v>-0.0269265564280832</v>
+        <v>0.007008182469749282</v>
       </c>
       <c r="D43">
-        <v>0.008445181087974665</v>
+        <v>-0.02083614442623751</v>
       </c>
       <c r="E43">
-        <v>-0.008038589714387579</v>
+        <v>-0.02587828089799277</v>
       </c>
       <c r="F43">
-        <v>-0.04213861541536572</v>
+        <v>-0.01163554283525166</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1224267031608721</v>
+        <v>-0.07316716556347015</v>
       </c>
       <c r="C44">
-        <v>-0.1275349799237428</v>
+        <v>0.02270416992887226</v>
       </c>
       <c r="D44">
-        <v>0.08195636621746995</v>
+        <v>-0.09893172096128951</v>
       </c>
       <c r="E44">
-        <v>-0.05499939379921045</v>
+        <v>-0.06728620624299939</v>
       </c>
       <c r="F44">
-        <v>0.0122199342456724</v>
+        <v>0.1697891205825425</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03309268584171529</v>
+        <v>-0.02259843582150112</v>
       </c>
       <c r="C46">
-        <v>-0.01524319745408966</v>
+        <v>0.004336224320482604</v>
       </c>
       <c r="D46">
-        <v>0.02500105461133939</v>
+        <v>-0.01071863113367074</v>
       </c>
       <c r="E46">
-        <v>-0.03685991962608414</v>
+        <v>-0.02289262209011472</v>
       </c>
       <c r="F46">
-        <v>-0.02828076928648758</v>
+        <v>-0.0002840384126651368</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03924375502049249</v>
+        <v>-0.05224826920570082</v>
       </c>
       <c r="C47">
-        <v>-0.0285224811144076</v>
+        <v>0.003385891643498312</v>
       </c>
       <c r="D47">
-        <v>-0.003217158409002088</v>
+        <v>-0.01224369951362206</v>
       </c>
       <c r="E47">
-        <v>-0.01192433197331372</v>
+        <v>-0.02165442683216949</v>
       </c>
       <c r="F47">
-        <v>-0.004254046067689945</v>
+        <v>-0.04379929826300174</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04013075275976476</v>
+        <v>-0.04756563261038333</v>
       </c>
       <c r="C48">
-        <v>-0.01375311691110092</v>
+        <v>0.003311260529249798</v>
       </c>
       <c r="D48">
-        <v>-0.01524072703860762</v>
+        <v>-0.04679320411666384</v>
       </c>
       <c r="E48">
-        <v>-0.01202442251674532</v>
+        <v>0.005189214394087029</v>
       </c>
       <c r="F48">
-        <v>0.01738279688346726</v>
+        <v>0.01220020032608986</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2209631399620963</v>
+        <v>-0.2026777754407616</v>
       </c>
       <c r="C49">
-        <v>-0.00103440133120494</v>
+        <v>0.01707398840359645</v>
       </c>
       <c r="D49">
-        <v>-0.04657666038057733</v>
+        <v>0.009366624616833186</v>
       </c>
       <c r="E49">
-        <v>-0.09282554753464502</v>
+        <v>-0.03704674169492794</v>
       </c>
       <c r="F49">
-        <v>0.02129847803886581</v>
+        <v>0.03092781171296891</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03967850973064579</v>
+        <v>-0.04847976185221271</v>
       </c>
       <c r="C50">
-        <v>-0.02636946070233294</v>
+        <v>0.01129080956389803</v>
       </c>
       <c r="D50">
-        <v>-0.01635955809360592</v>
+        <v>-0.02597974745707867</v>
       </c>
       <c r="E50">
-        <v>-0.001304222801686968</v>
+        <v>-0.02846760062935688</v>
       </c>
       <c r="F50">
-        <v>-0.03400939124552087</v>
+        <v>0.009790402484458461</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02064479728730251</v>
+        <v>-0.002942790621899062</v>
       </c>
       <c r="C51">
-        <v>0.01189509876489409</v>
+        <v>0.0007391693630040516</v>
       </c>
       <c r="D51">
-        <v>-0.0003760983170409192</v>
+        <v>0.002278009893812183</v>
       </c>
       <c r="E51">
-        <v>-0.01553664033197093</v>
+        <v>-0.000436695829493614</v>
       </c>
       <c r="F51">
-        <v>0.02588182232835418</v>
+        <v>0.005520937555856035</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.07960348045247148</v>
+        <v>-0.1447415421207514</v>
       </c>
       <c r="C52">
-        <v>-0.06640806606800158</v>
+        <v>0.01336634763906083</v>
       </c>
       <c r="D52">
-        <v>-0.01282030515922352</v>
+        <v>-0.05054839385793618</v>
       </c>
       <c r="E52">
-        <v>-0.009288371503023158</v>
+        <v>-0.02106321076504095</v>
       </c>
       <c r="F52">
-        <v>-0.0562433277669809</v>
+        <v>0.03667202542961443</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1570388485302011</v>
+        <v>-0.1736646475533722</v>
       </c>
       <c r="C53">
-        <v>-0.05081975106031197</v>
+        <v>0.01609908237243387</v>
       </c>
       <c r="D53">
-        <v>0.01420825705737303</v>
+        <v>-0.01344396064866979</v>
       </c>
       <c r="E53">
-        <v>-0.04609304130987096</v>
+        <v>-0.03597265258719491</v>
       </c>
       <c r="F53">
-        <v>-0.07811377415573056</v>
+        <v>0.06793440926378827</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05744667110658148</v>
+        <v>-0.02255854859879118</v>
       </c>
       <c r="C54">
-        <v>-0.06504856389573288</v>
+        <v>0.01264784151020306</v>
       </c>
       <c r="D54">
-        <v>0.001007925422742362</v>
+        <v>-0.03395552648990317</v>
       </c>
       <c r="E54">
-        <v>-0.01416099401020289</v>
+        <v>-0.01534155327514283</v>
       </c>
       <c r="F54">
-        <v>0.02699164972334063</v>
+        <v>-0.004071307957729069</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08637248025573191</v>
+        <v>-0.1146881284661962</v>
       </c>
       <c r="C55">
-        <v>-0.04878867429976996</v>
+        <v>0.01480362735996218</v>
       </c>
       <c r="D55">
-        <v>-0.0332240858352268</v>
+        <v>-0.01231842380101962</v>
       </c>
       <c r="E55">
-        <v>-0.01953450669939908</v>
+        <v>-0.03013520309491478</v>
       </c>
       <c r="F55">
-        <v>-0.02179494628291162</v>
+        <v>0.05095947366919526</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1505604632693996</v>
+        <v>-0.17786581926776</v>
       </c>
       <c r="C56">
-        <v>-0.08249817048225867</v>
+        <v>0.01366538737373269</v>
       </c>
       <c r="D56">
-        <v>-0.02503419139317717</v>
+        <v>-0.008158018779330636</v>
       </c>
       <c r="E56">
-        <v>-0.07978242020771403</v>
+        <v>-0.04031317566475508</v>
       </c>
       <c r="F56">
-        <v>-0.05252974422925933</v>
+        <v>0.0416085724418707</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05856649530955089</v>
+        <v>-0.04690243455090758</v>
       </c>
       <c r="C58">
-        <v>-0.04468091408104618</v>
+        <v>0.002830063002821316</v>
       </c>
       <c r="D58">
-        <v>0.04340244207167952</v>
+        <v>-0.06412710380264242</v>
       </c>
       <c r="E58">
-        <v>-0.03883962350842862</v>
+        <v>-0.02238412647618942</v>
       </c>
       <c r="F58">
-        <v>-0.02743381552661898</v>
+        <v>-0.04980941611607196</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2122994795663702</v>
+        <v>-0.1711715211781265</v>
       </c>
       <c r="C59">
-        <v>0.222874585976657</v>
+        <v>0.01558805094997474</v>
       </c>
       <c r="D59">
-        <v>-0.04615618793980082</v>
+        <v>0.2273644070340489</v>
       </c>
       <c r="E59">
-        <v>0.01877101880713715</v>
+        <v>0.04842504623220099</v>
       </c>
       <c r="F59">
-        <v>0.09024960419959685</v>
+        <v>-0.03215616933096957</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.223115174066533</v>
+        <v>-0.2376457967023754</v>
       </c>
       <c r="C60">
-        <v>-0.1036558835272118</v>
+        <v>-0.003965720391845974</v>
       </c>
       <c r="D60">
-        <v>-0.08632777303342348</v>
+        <v>-0.04913054388696606</v>
       </c>
       <c r="E60">
-        <v>-0.1264313065388245</v>
+        <v>-0.008002405950872361</v>
       </c>
       <c r="F60">
-        <v>-0.01649704553597952</v>
+        <v>-0.03122093859307092</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.105114944176504</v>
+        <v>-0.08483068846222651</v>
       </c>
       <c r="C61">
-        <v>-0.0613854320609301</v>
+        <v>0.01432593704401166</v>
       </c>
       <c r="D61">
-        <v>-0.08635963219905748</v>
+        <v>-0.1103422808771238</v>
       </c>
       <c r="E61">
-        <v>-0.00665293647588265</v>
+        <v>-0.03993323381523999</v>
       </c>
       <c r="F61">
-        <v>-0.04741037152648405</v>
+        <v>0.01843987032851446</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1471478713083271</v>
+        <v>-0.1705353643525137</v>
       </c>
       <c r="C62">
-        <v>-0.06335842455058606</v>
+        <v>0.01765697197648202</v>
       </c>
       <c r="D62">
-        <v>0.002912475232739251</v>
+        <v>-0.0116271424680332</v>
       </c>
       <c r="E62">
-        <v>-0.06260334163500028</v>
+        <v>-0.03757277570903948</v>
       </c>
       <c r="F62">
-        <v>-0.04856506833968389</v>
+        <v>0.02248097255372659</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04553749159896987</v>
+        <v>-0.04288592969256021</v>
       </c>
       <c r="C63">
-        <v>-0.02546906811705808</v>
+        <v>0.00380856229862651</v>
       </c>
       <c r="D63">
-        <v>-0.007229007676000079</v>
+        <v>-0.04888784656435601</v>
       </c>
       <c r="E63">
-        <v>0.02902469659719313</v>
+        <v>-0.02035946802604794</v>
       </c>
       <c r="F63">
-        <v>-0.005168106177387554</v>
+        <v>0.008471747531326141</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09182175626522365</v>
+        <v>-0.1126422688952424</v>
       </c>
       <c r="C64">
-        <v>-0.04844034039421936</v>
+        <v>0.01215760108837875</v>
       </c>
       <c r="D64">
-        <v>-0.01206612828654814</v>
+        <v>-0.04102121292717203</v>
       </c>
       <c r="E64">
-        <v>-0.06404255508829082</v>
+        <v>-0.02012533467498048</v>
       </c>
       <c r="F64">
-        <v>-0.06095351995046307</v>
+        <v>0.02290676171562091</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1235601604119586</v>
+        <v>-0.1442856679581058</v>
       </c>
       <c r="C65">
-        <v>-0.05661803008006665</v>
+        <v>0.03125578314960392</v>
       </c>
       <c r="D65">
-        <v>-0.01605021108366084</v>
+        <v>0.04414989670266475</v>
       </c>
       <c r="E65">
-        <v>0.04713237813082986</v>
+        <v>-0.0008655836884898881</v>
       </c>
       <c r="F65">
-        <v>-0.05115455099611011</v>
+        <v>0.04110836770951404</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1260711822228797</v>
+        <v>-0.1315709291043268</v>
       </c>
       <c r="C66">
-        <v>-0.1148019948118025</v>
+        <v>0.01588397339782239</v>
       </c>
       <c r="D66">
-        <v>-0.128383409543299</v>
+        <v>-0.1369869704515457</v>
       </c>
       <c r="E66">
-        <v>0.009783351725317644</v>
+        <v>-0.06450873859471612</v>
       </c>
       <c r="F66">
-        <v>-0.1278814354574973</v>
+        <v>0.03920390861358538</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0568574750258547</v>
+        <v>-0.06319914650288558</v>
       </c>
       <c r="C67">
-        <v>-0.02639131856686105</v>
+        <v>0.003600859114036071</v>
       </c>
       <c r="D67">
-        <v>0.03201116009934222</v>
+        <v>-0.05476716954417332</v>
       </c>
       <c r="E67">
-        <v>-0.01355352202623141</v>
+        <v>-0.02022028843444922</v>
       </c>
       <c r="F67">
-        <v>-0.05228387846351134</v>
+        <v>-0.0403601049200271</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1282077925059634</v>
+        <v>-0.1147500076868325</v>
       </c>
       <c r="C68">
-        <v>0.2475228000955045</v>
+        <v>0.02487701457389926</v>
       </c>
       <c r="D68">
-        <v>-0.01201121695292522</v>
+        <v>0.2659963180669258</v>
       </c>
       <c r="E68">
-        <v>0.0682773852431528</v>
+        <v>0.08526493618199278</v>
       </c>
       <c r="F68">
-        <v>-0.001245884009763839</v>
+        <v>0.03763480544915701</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04004246879497816</v>
+        <v>-0.03959633874644299</v>
       </c>
       <c r="C69">
-        <v>0.005739293456395326</v>
+        <v>0.001121471971751286</v>
       </c>
       <c r="D69">
-        <v>-0.0001157036373783936</v>
+        <v>-0.009210868699964514</v>
       </c>
       <c r="E69">
-        <v>-0.00806014240089194</v>
+        <v>-0.02409276793419001</v>
       </c>
       <c r="F69">
-        <v>-0.03866608612141209</v>
+        <v>-0.01276753991421828</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03684428198573461</v>
+        <v>-0.06397585188577612</v>
       </c>
       <c r="C70">
-        <v>-0.01208613938919299</v>
+        <v>-0.02755075903530427</v>
       </c>
       <c r="D70">
-        <v>-0.03877454658027073</v>
+        <v>-0.02654061870555772</v>
       </c>
       <c r="E70">
-        <v>-0.01564962468907608</v>
+        <v>0.0479101887233847</v>
       </c>
       <c r="F70">
-        <v>-0.06122633414836806</v>
+        <v>-0.2915220433326596</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1472532569587574</v>
+        <v>-0.1334113268114538</v>
       </c>
       <c r="C71">
-        <v>0.2691080673303574</v>
+        <v>0.02918442841478476</v>
       </c>
       <c r="D71">
-        <v>-0.006340571944171178</v>
+        <v>0.2821315949844122</v>
       </c>
       <c r="E71">
-        <v>0.03543451891763446</v>
+        <v>0.09375689086482059</v>
       </c>
       <c r="F71">
-        <v>-0.04875320936246122</v>
+        <v>0.04142077116012705</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1420275970544028</v>
+        <v>-0.138895231239396</v>
       </c>
       <c r="C72">
-        <v>-0.02413833093593418</v>
+        <v>0.02436185084965784</v>
       </c>
       <c r="D72">
-        <v>-0.002476303383185972</v>
+        <v>-0.004693334911408555</v>
       </c>
       <c r="E72">
-        <v>-0.01089227650107683</v>
+        <v>-0.04376423630036335</v>
       </c>
       <c r="F72">
-        <v>-0.04506564245334168</v>
+        <v>0.02251681409652923</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2125678938859185</v>
+        <v>-0.2050204127842743</v>
       </c>
       <c r="C73">
-        <v>-0.0386268262000171</v>
+        <v>0.01153985583537528</v>
       </c>
       <c r="D73">
-        <v>-0.1350291118751462</v>
+        <v>-0.01637440055836352</v>
       </c>
       <c r="E73">
-        <v>-0.15051536275872</v>
+        <v>-0.06293551132420183</v>
       </c>
       <c r="F73">
-        <v>-0.06242808782971597</v>
+        <v>0.03205927105163779</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1130595642594191</v>
+        <v>-0.09428745705166523</v>
       </c>
       <c r="C74">
-        <v>-0.09508646703639954</v>
+        <v>0.01213677607590097</v>
       </c>
       <c r="D74">
-        <v>-0.006305113545757755</v>
+        <v>-0.02336235093473984</v>
       </c>
       <c r="E74">
-        <v>-0.02718901308142237</v>
+        <v>-0.04913127788831559</v>
       </c>
       <c r="F74">
-        <v>-0.08595442558967188</v>
+        <v>0.04370255653630241</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1017950041206081</v>
+        <v>-0.1301039197490368</v>
       </c>
       <c r="C75">
-        <v>-0.06490617793267363</v>
+        <v>0.0263457715663034</v>
       </c>
       <c r="D75">
-        <v>-0.00563184063836271</v>
+        <v>-0.03361063711775943</v>
       </c>
       <c r="E75">
-        <v>-0.02079017420072723</v>
+        <v>-0.06001784020224829</v>
       </c>
       <c r="F75">
-        <v>0.01314769945307391</v>
+        <v>0.01399641483887916</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.03550862233110652</v>
+        <v>-0.005094578747208984</v>
       </c>
       <c r="C76">
-        <v>-0.00472365602425345</v>
+        <v>0.001186252505991507</v>
       </c>
       <c r="D76">
-        <v>-0.0105452668902807</v>
+        <v>0.001075936040941623</v>
       </c>
       <c r="E76">
-        <v>-0.03100093921263018</v>
+        <v>-0.002936677183041924</v>
       </c>
       <c r="F76">
-        <v>0.005447144738771776</v>
+        <v>0.00432270670125276</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06915316128596415</v>
+        <v>-0.0791213228868556</v>
       </c>
       <c r="C77">
-        <v>-0.03939155371254775</v>
+        <v>0.01062755619619675</v>
       </c>
       <c r="D77">
-        <v>-0.03214444896598104</v>
+        <v>-0.109871188971458</v>
       </c>
       <c r="E77">
-        <v>-0.03466347697921279</v>
+        <v>-0.03601626427654821</v>
       </c>
       <c r="F77">
-        <v>0.01827591167311128</v>
+        <v>0.0325160578896069</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1363851207423006</v>
+        <v>-0.1063308902080349</v>
       </c>
       <c r="C78">
-        <v>-0.127998662523013</v>
+        <v>0.04212650592529448</v>
       </c>
       <c r="D78">
-        <v>0.181727647890618</v>
+        <v>-0.1190603122076557</v>
       </c>
       <c r="E78">
-        <v>0.06288938746693014</v>
+        <v>-0.08531761561146592</v>
       </c>
       <c r="F78">
-        <v>0.8225372136175609</v>
+        <v>0.0757660398030216</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1333158290318965</v>
+        <v>-0.1643937657984182</v>
       </c>
       <c r="C79">
-        <v>-0.06857538092637455</v>
+        <v>0.02028350358683441</v>
       </c>
       <c r="D79">
-        <v>0.002567163845039034</v>
+        <v>-0.01924758932466956</v>
       </c>
       <c r="E79">
-        <v>-0.05348520050413302</v>
+        <v>-0.04815673399191026</v>
       </c>
       <c r="F79">
-        <v>-0.04344401371076733</v>
+        <v>0.008475157397255462</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07084727555651088</v>
+        <v>-0.08033304279425769</v>
       </c>
       <c r="C80">
-        <v>-0.05402149697954464</v>
+        <v>-0.0003735198792416077</v>
       </c>
       <c r="D80">
-        <v>-0.07107250792348921</v>
+        <v>-0.0578823475459392</v>
       </c>
       <c r="E80">
-        <v>0.003274236763655661</v>
+        <v>-0.0338931663806892</v>
       </c>
       <c r="F80">
-        <v>-0.04121346352162653</v>
+        <v>-0.01667338690671247</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1337827818082933</v>
+        <v>-0.123404355581792</v>
       </c>
       <c r="C81">
-        <v>-0.08667826918091548</v>
+        <v>0.03041376591513385</v>
       </c>
       <c r="D81">
-        <v>-0.002114628077851751</v>
+        <v>-0.01864153136011992</v>
       </c>
       <c r="E81">
-        <v>-0.04506231834757705</v>
+        <v>-0.05921440299846133</v>
       </c>
       <c r="F81">
-        <v>-0.0118279540291667</v>
+        <v>0.004973604471551874</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1427399628955218</v>
+        <v>-0.1638963137430312</v>
       </c>
       <c r="C82">
-        <v>-0.05887780337299491</v>
+        <v>0.02119372178523909</v>
       </c>
       <c r="D82">
-        <v>-0.01075913712657441</v>
+        <v>-0.01608470621478483</v>
       </c>
       <c r="E82">
-        <v>-0.03524865014696466</v>
+        <v>-0.03404863059137998</v>
       </c>
       <c r="F82">
-        <v>-0.06800818822977418</v>
+        <v>0.06270631016124553</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.09045624069192103</v>
+        <v>-0.063973934704075</v>
       </c>
       <c r="C83">
-        <v>-0.1534699530771301</v>
+        <v>0.003705933951169397</v>
       </c>
       <c r="D83">
-        <v>-0.01159175268262129</v>
+        <v>-0.04884216553020253</v>
       </c>
       <c r="E83">
-        <v>-0.001189501544224282</v>
+        <v>-0.004747374647137476</v>
       </c>
       <c r="F83">
-        <v>-0.01837073817423681</v>
+        <v>-0.0418726657656299</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05067346288056046</v>
+        <v>-0.0596907319242838</v>
       </c>
       <c r="C84">
-        <v>0.1094549308301882</v>
+        <v>0.0113965887043383</v>
       </c>
       <c r="D84">
-        <v>-0.05155978427625936</v>
+        <v>-0.0611158740130951</v>
       </c>
       <c r="E84">
-        <v>0.01185639625256424</v>
+        <v>0.0007129714538418136</v>
       </c>
       <c r="F84">
-        <v>0.1783566702049798</v>
+        <v>0.01232903062254367</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1197787633102896</v>
+        <v>-0.1385482338014184</v>
       </c>
       <c r="C85">
-        <v>-0.04847504705589448</v>
+        <v>0.02579295204358518</v>
       </c>
       <c r="D85">
-        <v>-0.01082115431721694</v>
+        <v>-0.01462588723900306</v>
       </c>
       <c r="E85">
-        <v>-0.06580544373084607</v>
+        <v>-0.04043403281494106</v>
       </c>
       <c r="F85">
-        <v>-0.04087954502753013</v>
+        <v>0.04532029896244111</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09005173456411561</v>
+        <v>-0.0980529736777687</v>
       </c>
       <c r="C86">
-        <v>-0.01419888283209146</v>
+        <v>-0.007239531017091275</v>
       </c>
       <c r="D86">
-        <v>-0.001739009001908989</v>
+        <v>-0.02283124206931107</v>
       </c>
       <c r="E86">
-        <v>-0.1701738555866068</v>
+        <v>-0.1448970359316233</v>
       </c>
       <c r="F86">
-        <v>0.2755997556463596</v>
+        <v>-0.8597384923559559</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.122183200149475</v>
+        <v>-0.09875551108723074</v>
       </c>
       <c r="C87">
-        <v>-0.1331510813561254</v>
+        <v>0.02519517608088565</v>
       </c>
       <c r="D87">
-        <v>-0.0004253245201504821</v>
+        <v>-0.07717807857985538</v>
       </c>
       <c r="E87">
-        <v>-0.07432331003891282</v>
+        <v>0.05160061034446534</v>
       </c>
       <c r="F87">
-        <v>0.03088917678725419</v>
+        <v>0.07716574644609972</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05043145384649505</v>
+        <v>-0.06200973789946965</v>
       </c>
       <c r="C88">
-        <v>-0.05014388799252687</v>
+        <v>0.003163733585167875</v>
       </c>
       <c r="D88">
-        <v>-0.0469432972544896</v>
+        <v>-0.05359412806085489</v>
       </c>
       <c r="E88">
-        <v>-0.02277387507672266</v>
+        <v>-0.02754855232325345</v>
       </c>
       <c r="F88">
-        <v>-0.04861653220710767</v>
+        <v>0.008745339771466305</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.206792587328556</v>
+        <v>-0.1341536294157193</v>
       </c>
       <c r="C89">
-        <v>0.3677033112538211</v>
+        <v>0.007450007370459111</v>
       </c>
       <c r="D89">
-        <v>0.05345211752266598</v>
+        <v>0.2625856301033011</v>
       </c>
       <c r="E89">
-        <v>0.02290500541434638</v>
+        <v>0.09163046236013542</v>
       </c>
       <c r="F89">
-        <v>0.01837220701632377</v>
+        <v>0.02374701297620869</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1587077411054228</v>
+        <v>-0.1446384443496125</v>
       </c>
       <c r="C90">
-        <v>0.260328754037258</v>
+        <v>0.0246400630289417</v>
       </c>
       <c r="D90">
-        <v>-0.008983781682831884</v>
+        <v>0.2701749074452922</v>
       </c>
       <c r="E90">
-        <v>0.02541590936649339</v>
+        <v>0.1072039019150295</v>
       </c>
       <c r="F90">
-        <v>-0.03840549040921895</v>
+        <v>0.02439121603115639</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07949278490813028</v>
+        <v>-0.1187447343367269</v>
       </c>
       <c r="C91">
-        <v>-0.05243879133298655</v>
+        <v>0.01657906711504498</v>
       </c>
       <c r="D91">
-        <v>-0.008860422805398331</v>
+        <v>0.005927324002812174</v>
       </c>
       <c r="E91">
-        <v>-0.05075505140474109</v>
+        <v>-0.05745945415540323</v>
       </c>
       <c r="F91">
-        <v>-0.0142936266933575</v>
+        <v>-0.01879848725892523</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1780363540429306</v>
+        <v>-0.148358012046782</v>
       </c>
       <c r="C92">
-        <v>0.3064807418648917</v>
+        <v>0.01642645085371395</v>
       </c>
       <c r="D92">
-        <v>0.03183736871447368</v>
+        <v>0.3012104625961813</v>
       </c>
       <c r="E92">
-        <v>0.04302050310557937</v>
+        <v>0.1022815165004713</v>
       </c>
       <c r="F92">
-        <v>0.01056259758146589</v>
+        <v>0.02021624444121386</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1623349203288961</v>
+        <v>-0.1490466761371176</v>
       </c>
       <c r="C93">
-        <v>0.3157616522224799</v>
+        <v>0.02112947541808414</v>
       </c>
       <c r="D93">
-        <v>-0.04320033309991791</v>
+        <v>0.2721017525714294</v>
       </c>
       <c r="E93">
-        <v>0.03263673942631243</v>
+        <v>0.07283210764867455</v>
       </c>
       <c r="F93">
-        <v>-0.02658794024660463</v>
+        <v>0.01807798918660451</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.132458311073782</v>
+        <v>-0.1336504726272262</v>
       </c>
       <c r="C94">
-        <v>-0.07452263839146565</v>
+        <v>0.02384368405252081</v>
       </c>
       <c r="D94">
-        <v>0.006498939190604926</v>
+        <v>-0.04644061583602112</v>
       </c>
       <c r="E94">
-        <v>-0.0389499107975879</v>
+        <v>-0.06122830479448883</v>
       </c>
       <c r="F94">
-        <v>-0.02106265482651272</v>
+        <v>0.03285058128813327</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1138695959982368</v>
+        <v>-0.1255751182722444</v>
       </c>
       <c r="C95">
-        <v>-0.04878286585026123</v>
+        <v>0.005650310755721156</v>
       </c>
       <c r="D95">
-        <v>0.01073837710773383</v>
+        <v>-0.09139647782906778</v>
       </c>
       <c r="E95">
-        <v>-0.02965462678844056</v>
+        <v>-0.04420513445230125</v>
       </c>
       <c r="F95">
-        <v>0.09055756568895837</v>
+        <v>-0.0111400998836956</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.006477350979884203</v>
+        <v>-0.09822905119228427</v>
       </c>
       <c r="C96">
-        <v>-0.008633425505705939</v>
+        <v>-0.9889783164891142</v>
       </c>
       <c r="D96">
-        <v>-0.0005404313064274591</v>
+        <v>0.02539939724937436</v>
       </c>
       <c r="E96">
-        <v>-0.00174242450364536</v>
+        <v>-0.05854890218400707</v>
       </c>
       <c r="F96">
-        <v>0.02311556745229493</v>
+        <v>0.04834840685140433</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1728125656646092</v>
+        <v>-0.1869527187930318</v>
       </c>
       <c r="C97">
-        <v>-0.1790051629398048</v>
+        <v>-0.01171518112178859</v>
       </c>
       <c r="D97">
-        <v>0.1561093989200305</v>
+        <v>0.00694896401020933</v>
       </c>
       <c r="E97">
-        <v>0.8796503906431562</v>
+        <v>-0.01709429591455988</v>
       </c>
       <c r="F97">
-        <v>-0.05873862858229446</v>
+        <v>-0.1733735944730677</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2333161995769049</v>
+        <v>-0.2044461710340175</v>
       </c>
       <c r="C98">
-        <v>-0.06560288539569525</v>
+        <v>0.006881782266221575</v>
       </c>
       <c r="D98">
-        <v>0.08072418533845757</v>
+        <v>-0.01372511567541441</v>
       </c>
       <c r="E98">
-        <v>-0.03396593092257047</v>
+        <v>0.09362373858113329</v>
       </c>
       <c r="F98">
-        <v>0.06703566682895871</v>
+        <v>-0.1243137063241431</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0544023109388481</v>
+        <v>-0.05679868954927022</v>
       </c>
       <c r="C99">
-        <v>-0.01682970938694356</v>
+        <v>-0.00357469966089321</v>
       </c>
       <c r="D99">
-        <v>-0.001426305381382673</v>
+        <v>-0.03499340564484534</v>
       </c>
       <c r="E99">
-        <v>-0.01923051206451222</v>
+        <v>-0.0263169085891951</v>
       </c>
       <c r="F99">
-        <v>-0.002299943196721968</v>
+        <v>0.002424099289176433</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.001865684997546397</v>
+        <v>-0.1243019731638313</v>
       </c>
       <c r="C100">
-        <v>-0.005408423316819368</v>
+        <v>-0.04914435271622023</v>
       </c>
       <c r="D100">
-        <v>0.006297546324800983</v>
+        <v>-0.3384237794034066</v>
       </c>
       <c r="E100">
-        <v>0.1280921932475446</v>
+        <v>0.8994749563743284</v>
       </c>
       <c r="F100">
-        <v>-0.03458368110694913</v>
+        <v>-0.06645831404791559</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03105867453647988</v>
+        <v>-0.02695651984374268</v>
       </c>
       <c r="C101">
-        <v>-0.02726994750107035</v>
+        <v>0.008993027113040748</v>
       </c>
       <c r="D101">
-        <v>-0.02658783915977519</v>
+        <v>-0.03108807047654126</v>
       </c>
       <c r="E101">
-        <v>-0.0273236541278094</v>
+        <v>-0.01150092912178941</v>
       </c>
       <c r="F101">
-        <v>-0.01719915664719984</v>
+        <v>-0.01285448883963793</v>
       </c>
     </row>
     <row r="102" spans="1:6">
